--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sostdc1-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sostdc1-Lrp5.xlsx
@@ -537,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4321403333333333</v>
+        <v>0.21011</v>
       </c>
       <c r="H2">
-        <v>1.296421</v>
+        <v>0.6303299999999999</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.521022</v>
+        <v>10.25883033333333</v>
       </c>
       <c r="N2">
-        <v>40.563066</v>
+        <v>30.776491</v>
       </c>
       <c r="O2">
-        <v>0.3282908109760463</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="P2">
-        <v>0.3282908109760462</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="Q2">
-        <v>5.842978954087333</v>
+        <v>2.155482841336667</v>
       </c>
       <c r="R2">
-        <v>52.58681058678599</v>
+        <v>19.39934557203</v>
       </c>
       <c r="S2">
-        <v>0.3282908109760463</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="T2">
-        <v>0.3282908109760462</v>
+        <v>0.34684992242997</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4321403333333333</v>
+        <v>0.21011</v>
       </c>
       <c r="H3">
-        <v>1.296421</v>
+        <v>0.6303299999999999</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>14.931899</v>
       </c>
       <c r="O3">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322607</v>
       </c>
       <c r="P3">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322608</v>
       </c>
       <c r="Q3">
-        <v>2.150891937053222</v>
+        <v>1.045780432963333</v>
       </c>
       <c r="R3">
-        <v>19.358027433479</v>
+        <v>9.41202389667</v>
       </c>
       <c r="S3">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322607</v>
       </c>
       <c r="T3">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322608</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4321403333333333</v>
+        <v>0.21011</v>
       </c>
       <c r="H4">
-        <v>1.296421</v>
+        <v>0.6303299999999999</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.309148666666666</v>
+        <v>4.130648333333333</v>
       </c>
       <c r="N4">
-        <v>15.927446</v>
+        <v>12.391945</v>
       </c>
       <c r="O4">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="P4">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="Q4">
-        <v>2.294297274529555</v>
+        <v>0.8678905213166667</v>
       </c>
       <c r="R4">
-        <v>20.648675470766</v>
+        <v>7.811014691849999</v>
       </c>
       <c r="S4">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="T4">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.4321403333333333</v>
+        <v>0.21011</v>
       </c>
       <c r="H5">
-        <v>1.296421</v>
+        <v>0.6303299999999999</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.756501666666666</v>
+        <v>2.760918333333333</v>
       </c>
       <c r="N5">
-        <v>23.269505</v>
+        <v>8.282755</v>
       </c>
       <c r="O5">
-        <v>0.1883280881051044</v>
+        <v>0.09334634443076846</v>
       </c>
       <c r="P5">
-        <v>0.1883280881051043</v>
+        <v>0.09334634443076847</v>
       </c>
       <c r="Q5">
-        <v>3.351897215733888</v>
+        <v>0.5800965510166666</v>
       </c>
       <c r="R5">
-        <v>30.16707494160499</v>
+        <v>5.22086895915</v>
       </c>
       <c r="S5">
-        <v>0.1883280881051044</v>
+        <v>0.09334634443076846</v>
       </c>
       <c r="T5">
-        <v>0.1883280881051043</v>
+        <v>0.09334634443076847</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.4321403333333333</v>
+        <v>0.21011</v>
       </c>
       <c r="H6">
-        <v>1.296421</v>
+        <v>0.6303299999999999</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.036727666666666</v>
+        <v>2.602884</v>
       </c>
       <c r="N6">
-        <v>6.110182999999999</v>
+        <v>7.808651999999999</v>
       </c>
       <c r="O6">
-        <v>0.04945180752071481</v>
+        <v>0.08800322104565558</v>
       </c>
       <c r="P6">
-        <v>0.04945180752071481</v>
+        <v>0.0880032210456556</v>
       </c>
       <c r="Q6">
-        <v>0.8801521727825553</v>
+        <v>0.5468919572399999</v>
       </c>
       <c r="R6">
-        <v>7.921369555042998</v>
+        <v>4.922027615159999</v>
       </c>
       <c r="S6">
-        <v>0.04945180752071481</v>
+        <v>0.08800322104565558</v>
       </c>
       <c r="T6">
-        <v>0.04945180752071481</v>
+        <v>0.0880032210456556</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.4321403333333333</v>
+        <v>0.21011</v>
       </c>
       <c r="H7">
-        <v>1.296421</v>
+        <v>0.6303299999999999</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.585411999999999</v>
+        <v>4.846564</v>
       </c>
       <c r="N7">
-        <v>22.756236</v>
+        <v>14.539692</v>
       </c>
       <c r="O7">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571931</v>
       </c>
       <c r="P7">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571932</v>
       </c>
       <c r="Q7">
-        <v>3.277962470150666</v>
+        <v>1.01831156204</v>
       </c>
       <c r="R7">
-        <v>29.50166223135599</v>
+        <v>9.16480405836</v>
       </c>
       <c r="S7">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571931</v>
       </c>
       <c r="T7">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571932</v>
       </c>
     </row>
   </sheetData>
